--- a/a.xlsx
+++ b/a.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f245336dea5d303d/Documents/UiPath/Skill Test 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="11_F25DC773A252ABDACC1048C1519C43EC5BDE58E9" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6F379339-A709-4284-87D4-1230E97266FD}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="11_F25DC773A252ABDACC1048C1519C43EC5BDE58E9" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{995F6F33-A403-4614-AEB9-3135CB6D1ED1}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>S.no</t>
   </si>
@@ -37,9 +37,6 @@
   </si>
   <si>
     <t>Mani</t>
-  </si>
-  <si>
-    <t>Lithan</t>
   </si>
 </sst>
 </file>
@@ -357,10 +354,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -389,14 +386,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
